--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1442527.936078997</v>
+        <v>1412236.907096273</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6251091.318972465</v>
+        <v>6251091.318972459</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.5193474360557</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -679,35 +679,35 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0.5096686531243394</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,64 +743,64 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="V3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="G3" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="W3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>11.94294668035388</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.5193474360557</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -916,35 +916,35 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S6" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T6" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,70 +1053,70 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="E7" t="n">
+      <c r="U7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
     </row>
     <row r="9">
@@ -1217,67 +1217,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="T9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="V9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,46 +1296,46 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="G10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="F10" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>115.1026521196938</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4434871155996</v>
+        <v>135.9825043678881</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -1514,7 +1514,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409837</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.56229623076285</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.08155235095656</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S13" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>222.0094791147771</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>314.136721391124</v>
       </c>
       <c r="I14" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>199.9816041186609</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>126.63893338058</v>
       </c>
       <c r="H15" t="n">
-        <v>91.19012767173828</v>
+        <v>91.19012767173888</v>
       </c>
       <c r="I15" t="n">
         <v>40.0760478450364</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.374591662540453</v>
+        <v>9.374591662540446</v>
       </c>
       <c r="S15" t="n">
         <v>136.3694633427392</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.90342624128611</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>199.8509778158173</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9733019088003</v>
+        <v>70.71137116342202</v>
       </c>
       <c r="U16" t="n">
         <v>284.2816495190633</v>
       </c>
       <c r="V16" t="n">
-        <v>254.4736772091224</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>360.7739230300813</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
         <v>410.4434871155996</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>215.551472561587</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>190.6780096749228</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.4107873740538</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.028430021818</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.4434871155996</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>37.98992653005159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.57474045222884</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0.5237237279449135</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.7988405018876</v>
       </c>
       <c r="I22" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>172.2114951798004</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I23" t="n">
-        <v>97.8736445607709</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T23" t="n">
-        <v>215.551472561587</v>
+        <v>202.3376768235215</v>
       </c>
       <c r="U23" t="n">
         <v>252.2165261579655</v>
@@ -2380,13 +2380,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>148.2784320521798</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>42.58904707043918</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>56.52588257022</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>410.4434871155996</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>131.9955980490161</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>34.47032609388489</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H28" t="n">
         <v>151.7988405018876</v>
@@ -2736,7 +2736,7 @@
         <v>122.5339189574214</v>
       </c>
       <c r="J28" t="n">
-        <v>11.9034262412861</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.51417521222797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>65.5445785256921</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T29" t="n">
         <v>215.551472561587</v>
@@ -2851,10 +2851,10 @@
         <v>252.2165261579655</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>140.2991077383213</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>135.0301454923441</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.432271631324936</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>353.6882577527173</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>311.7598829646557</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T32" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>252.2165261579655</v>
@@ -3097,7 +3097,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>173.0732594919259</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>80.90219124795526</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>54.27529587846312</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2165261579655</v>
+        <v>78.39821319606159</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -3331,7 +3331,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>86.8412807717089</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>146.3312415990282</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V38" t="n">
-        <v>51.97060336744931</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>108.4200922715735</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -3650,7 +3650,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.5961130869169</v>
+        <v>190.5961130869173</v>
       </c>
     </row>
     <row r="40">
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>8.249152053246952</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S40" t="n">
-        <v>199.8509778158173</v>
+        <v>133.5764091128695</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>284.2816495190633</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>96.87190496207023</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
@@ -3760,7 +3760,7 @@
         <v>314.136721391124</v>
       </c>
       <c r="I41" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>14.68889831763089</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>41.10632907949909</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>114.4000736261475</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>361.7052141094887</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>220.469778379642</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.557729843698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>73.48071799696307</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>106.0892518150791</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C2" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D2" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="E2" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F2" t="n">
-        <v>25.08260074524424</v>
+        <v>13.53383506117399</v>
       </c>
       <c r="G2" t="n">
-        <v>13.01901823983628</v>
+        <v>1.470252555766027</v>
       </c>
       <c r="H2" t="n">
-        <v>13.01901823983628</v>
+        <v>1.470252555766027</v>
       </c>
       <c r="I2" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J2" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K2" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L2" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="M2" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N2" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O2" t="n">
         <v>24.12475229431485</v>
@@ -4354,28 +4354,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X2" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C3" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D3" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E3" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F3" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I3" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L3" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M3" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N3" t="n">
         <v>35.94826950786519</v>
@@ -4433,28 +4433,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U3" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V3" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W3" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="X3" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y3" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E4" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F4" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G4" t="n">
         <v>13.01901823983628</v>
       </c>
       <c r="H4" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I4" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="J4" t="n">
         <v>0.9554357344283108</v>
@@ -4494,16 +4494,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="L4" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M4" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="N4" t="n">
         <v>24.12475229431485</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="O4" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="P4" t="n">
         <v>47.77178672141554</v>
@@ -4515,25 +4515,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S4" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="T4" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="T4" t="n">
-        <v>23.64462171059961</v>
-      </c>
       <c r="U4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="C5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="D5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="E5" t="n">
-        <v>35.70820421600757</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F5" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G5" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H5" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I5" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K5" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L5" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M5" t="n">
-        <v>35.94826950786519</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="N5" t="n">
         <v>47.77178672141554</v>
@@ -4591,28 +4591,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.12980488926189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="H6" t="n">
         <v>13.01901823983628</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9554357344283108</v>
       </c>
       <c r="I6" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J6" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K6" t="n">
-        <v>24.12475229431485</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L6" t="n">
-        <v>24.12475229431485</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M6" t="n">
-        <v>24.12475229431485</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="N6" t="n">
-        <v>24.12475229431485</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O6" t="n">
         <v>24.12475229431485</v>
@@ -4673,25 +4673,25 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T6" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U6" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V6" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W6" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X6" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C7" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D7" t="n">
         <v>13.01901823983628</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J7" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K7" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L7" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M7" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="N7" t="n">
         <v>24.12475229431485</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="O7" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="P7" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="R7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T7" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="U7" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V7" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="C8" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D8" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E8" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F8" t="n">
         <v>13.01901823983628</v>
@@ -4804,52 +4804,52 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L8" t="n">
         <v>12.77895294797866</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.60247016152901</v>
-      </c>
-      <c r="L8" t="n">
-        <v>36.42598737507935</v>
-      </c>
-      <c r="M8" t="n">
-        <v>36.42598737507935</v>
       </c>
       <c r="N8" t="n">
         <v>36.42598737507935</v>
       </c>
       <c r="O8" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P8" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D9" t="n">
         <v>0.9554357344283108</v>
@@ -4883,52 +4883,52 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9554357344283108</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="M9" t="n">
-        <v>12.77895294797866</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N9" t="n">
-        <v>12.77895294797866</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O9" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P9" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q9" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S9" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="U9" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="V9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="W9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="X9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D10" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="E10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F10" t="n">
-        <v>11.58103920519164</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G10" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L10" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M10" t="n">
         <v>24.12475229431485</v>
@@ -4977,37 +4977,37 @@
         <v>35.94826950786519</v>
       </c>
       <c r="O10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>580.1081545424528</v>
+        <v>1336.152976798128</v>
       </c>
       <c r="C11" t="n">
-        <v>580.1081545424528</v>
+        <v>954.2192181309351</v>
       </c>
       <c r="D11" t="n">
-        <v>580.1081545424528</v>
+        <v>581.3952533581587</v>
       </c>
       <c r="E11" t="n">
-        <v>580.1081545424528</v>
+        <v>186.6095334642656</v>
       </c>
       <c r="F11" t="n">
-        <v>463.8428493710449</v>
+        <v>186.6095334642656</v>
       </c>
       <c r="G11" t="n">
         <v>49.25346844619677</v>
@@ -5041,22 +5041,22 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J11" t="n">
-        <v>247.2441213907261</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K11" t="n">
-        <v>259.038858270432</v>
+        <v>78.91489085467504</v>
       </c>
       <c r="L11" t="n">
-        <v>303.6539538412613</v>
+        <v>661.059969551934</v>
       </c>
       <c r="M11" t="n">
-        <v>913.1656258629462</v>
+        <v>1270.571641573619</v>
       </c>
       <c r="N11" t="n">
-        <v>1522.677297884631</v>
+        <v>1880.083313595304</v>
       </c>
       <c r="O11" t="n">
-        <v>2021.048607715024</v>
+        <v>2435.203545131722</v>
       </c>
       <c r="P11" t="n">
         <v>2462.673422309838</v>
@@ -5071,22 +5071,22 @@
         <v>2309.958522527908</v>
       </c>
       <c r="T11" t="n">
-        <v>2309.958522527908</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="U11" t="n">
-        <v>2055.194354691579</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="V11" t="n">
-        <v>1718.21508058752</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="W11" t="n">
-        <v>1355.680150445121</v>
+        <v>1729.69483222229</v>
       </c>
       <c r="X11" t="n">
-        <v>973.6500099666148</v>
+        <v>1729.69483222229</v>
       </c>
       <c r="Y11" t="n">
-        <v>580.1081545424528</v>
+        <v>1336.152976798128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>892.0277972157133</v>
+        <v>892.0277972157131</v>
       </c>
       <c r="C12" t="n">
-        <v>730.3241244566681</v>
+        <v>730.324124456668</v>
       </c>
       <c r="D12" t="n">
-        <v>591.4854874468801</v>
+        <v>591.4854874468799</v>
       </c>
       <c r="E12" t="n">
-        <v>444.4574775037514</v>
+        <v>444.4574775037511</v>
       </c>
       <c r="F12" t="n">
-        <v>309.7636794536257</v>
+        <v>309.7636794536255</v>
       </c>
       <c r="G12" t="n">
-        <v>181.8455649277874</v>
+        <v>181.8455649277871</v>
       </c>
       <c r="H12" t="n">
-        <v>89.73432485532445</v>
+        <v>89.73432485532446</v>
       </c>
       <c r="I12" t="n">
         <v>49.25346844619677</v>
@@ -5123,28 +5123,28 @@
         <v>49.25346844619677</v>
       </c>
       <c r="K12" t="n">
-        <v>406.99939608602</v>
+        <v>179.0204142546561</v>
       </c>
       <c r="L12" t="n">
-        <v>945.2764207470584</v>
+        <v>717.2974389156946</v>
       </c>
       <c r="M12" t="n">
-        <v>1067.651044551365</v>
+        <v>1326.80911093738</v>
       </c>
       <c r="N12" t="n">
-        <v>1168.576526031233</v>
+        <v>1427.734592417248</v>
       </c>
       <c r="O12" t="n">
-        <v>1749.750845502266</v>
+        <v>2008.908911888281</v>
       </c>
       <c r="P12" t="n">
-        <v>2203.515355923823</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q12" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="R12" t="n">
-        <v>2453.204137802222</v>
+        <v>2453.204137802221</v>
       </c>
       <c r="S12" t="n">
         <v>2315.457205132788</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.25346844619677</v>
+        <v>490.728462213018</v>
       </c>
       <c r="C13" t="n">
-        <v>49.25346844619677</v>
+        <v>490.728462213018</v>
       </c>
       <c r="D13" t="n">
-        <v>49.25346844619677</v>
+        <v>490.728462213018</v>
       </c>
       <c r="E13" t="n">
-        <v>49.25346844619677</v>
+        <v>338.7194479743368</v>
       </c>
       <c r="F13" t="n">
-        <v>49.25346844619677</v>
+        <v>186.2387930001139</v>
       </c>
       <c r="G13" t="n">
-        <v>49.25346844619677</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="H13" t="n">
-        <v>49.25346844619677</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="I13" t="n">
         <v>49.25346844619677</v>
@@ -5226,25 +5226,25 @@
         <v>1037.620168137196</v>
       </c>
       <c r="S13" t="n">
-        <v>835.7504935757646</v>
+        <v>1037.620168137196</v>
       </c>
       <c r="T13" t="n">
-        <v>605.4744310416229</v>
+        <v>1037.620168137196</v>
       </c>
       <c r="U13" t="n">
-        <v>318.3212497092357</v>
+        <v>1037.620168137196</v>
       </c>
       <c r="V13" t="n">
-        <v>318.3212497092357</v>
+        <v>776.8848636956188</v>
       </c>
       <c r="W13" t="n">
-        <v>318.3212497092357</v>
+        <v>490.728462213018</v>
       </c>
       <c r="X13" t="n">
-        <v>318.3212497092357</v>
+        <v>490.728462213018</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.28609090151278</v>
+        <v>490.728462213018</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1915.914983009889</v>
+        <v>1516.106731367053</v>
       </c>
       <c r="C14" t="n">
-        <v>1533.981224342696</v>
+        <v>1134.17297269986</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.729225236861</v>
+        <v>761.3490079270839</v>
       </c>
       <c r="E14" t="n">
-        <v>1309.729225236861</v>
+        <v>366.5632880331907</v>
       </c>
       <c r="F14" t="n">
-        <v>895.5780345470309</v>
+        <v>366.5632880331907</v>
       </c>
       <c r="G14" t="n">
-        <v>480.9886536221828</v>
+        <v>366.5632880331907</v>
       </c>
       <c r="H14" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I14" t="n">
         <v>49.25346844619677</v>
@@ -5281,22 +5281,22 @@
         <v>247.2441213907261</v>
       </c>
       <c r="K14" t="n">
-        <v>259.038858270432</v>
+        <v>676.2140042495211</v>
       </c>
       <c r="L14" t="n">
-        <v>841.183936967691</v>
+        <v>720.8290998203504</v>
       </c>
       <c r="M14" t="n">
-        <v>1450.695608989376</v>
+        <v>1330.340771842035</v>
       </c>
       <c r="N14" t="n">
-        <v>1531.038271559008</v>
+        <v>1939.85244386372</v>
       </c>
       <c r="O14" t="n">
-        <v>1766.310837595861</v>
+        <v>2435.203545131722</v>
       </c>
       <c r="P14" t="n">
-        <v>2207.935652190675</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q14" t="n">
         <v>2462.673422309838</v>
@@ -5305,25 +5305,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S14" t="n">
-        <v>2309.958522527908</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="T14" t="n">
-        <v>2309.958522527908</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="U14" t="n">
-        <v>2309.958522527908</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="V14" t="n">
-        <v>2309.958522527908</v>
+        <v>2260.671801987959</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.958522527908</v>
+        <v>1898.13687184556</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.958522527908</v>
+        <v>1516.106731367053</v>
       </c>
       <c r="Y14" t="n">
-        <v>2309.958522527908</v>
+        <v>1516.106731367053</v>
       </c>
     </row>
     <row r="15">
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>892.0277972157131</v>
+        <v>892.0277972157139</v>
       </c>
       <c r="C15" t="n">
-        <v>730.324124456668</v>
+        <v>730.3241244566686</v>
       </c>
       <c r="D15" t="n">
-        <v>591.4854874468799</v>
+        <v>591.4854874468807</v>
       </c>
       <c r="E15" t="n">
-        <v>444.4574775037511</v>
+        <v>444.4574775037519</v>
       </c>
       <c r="F15" t="n">
-        <v>309.7636794536255</v>
+        <v>309.7636794536263</v>
       </c>
       <c r="G15" t="n">
-        <v>181.8455649277871</v>
+        <v>181.845564927788</v>
       </c>
       <c r="H15" t="n">
-        <v>89.73432485532446</v>
+        <v>89.73432485532445</v>
       </c>
       <c r="I15" t="n">
         <v>49.25346844619677</v>
       </c>
       <c r="J15" t="n">
-        <v>184.5476517718283</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K15" t="n">
-        <v>542.2935794116515</v>
+        <v>406.99939608602</v>
       </c>
       <c r="L15" t="n">
-        <v>603.2990796671381</v>
+        <v>468.0048963415065</v>
       </c>
       <c r="M15" t="n">
-        <v>690.2170764117047</v>
+        <v>818.2229203955633</v>
       </c>
       <c r="N15" t="n">
-        <v>1168.576526031233</v>
+        <v>1427.734592417248</v>
       </c>
       <c r="O15" t="n">
-        <v>1749.750845502266</v>
+        <v>2008.908911888281</v>
       </c>
       <c r="P15" t="n">
-        <v>2203.515355923823</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q15" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="R15" t="n">
-        <v>2453.204137802221</v>
+        <v>2453.204137802222</v>
       </c>
       <c r="S15" t="n">
         <v>2315.457205132788</v>
@@ -5399,10 +5399,10 @@
         <v>1441.885554469601</v>
       </c>
       <c r="X15" t="n">
-        <v>1243.968566347395</v>
+        <v>1243.968566347396</v>
       </c>
       <c r="Y15" t="n">
-        <v>1051.447239996974</v>
+        <v>1051.447239996975</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="C16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="D16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="E16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="F16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="G16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J16" t="n">
         <v>49.25346844619677</v>
@@ -5445,43 +5445,43 @@
         <v>359.8260486972724</v>
       </c>
       <c r="M16" t="n">
-        <v>582.199252837153</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N16" t="n">
-        <v>802.5193766803968</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O16" t="n">
-        <v>995.1021175735182</v>
+        <v>995.1021175735183</v>
       </c>
       <c r="P16" t="n">
-        <v>1138.605746134652</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q16" t="n">
         <v>1156.593657701994</v>
       </c>
       <c r="R16" t="n">
-        <v>1037.620168137196</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S16" t="n">
-        <v>835.7504935757646</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="T16" t="n">
-        <v>605.4744310416229</v>
+        <v>883.2983557027624</v>
       </c>
       <c r="U16" t="n">
-        <v>318.3212497092357</v>
+        <v>596.1451743703751</v>
       </c>
       <c r="V16" t="n">
-        <v>61.27713131618273</v>
+        <v>335.4098699287977</v>
       </c>
       <c r="W16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="X16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2092.229762364689</v>
+        <v>1250.818004833651</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.296003697496</v>
+        <v>1250.818004833651</v>
       </c>
       <c r="D17" t="n">
-        <v>1337.47203892472</v>
+        <v>877.9940400608746</v>
       </c>
       <c r="E17" t="n">
-        <v>942.6863190308263</v>
+        <v>877.9940400608746</v>
       </c>
       <c r="F17" t="n">
-        <v>578.2682149600371</v>
+        <v>463.8428493710449</v>
       </c>
       <c r="G17" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H17" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I17" t="n">
         <v>49.25346844619677</v>
@@ -5524,19 +5524,19 @@
         <v>1060.368430002251</v>
       </c>
       <c r="M17" t="n">
-        <v>1669.880102023936</v>
+        <v>1135.742738156728</v>
       </c>
       <c r="N17" t="n">
-        <v>1880.083313595304</v>
+        <v>1216.08540072636</v>
       </c>
       <c r="O17" t="n">
-        <v>2435.203545131722</v>
+        <v>1771.205632262778</v>
       </c>
       <c r="P17" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.521714177738</v>
       </c>
       <c r="Q17" t="n">
-        <v>2462.673422309838</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="R17" t="n">
         <v>2462.673422309838</v>
@@ -5548,19 +5548,19 @@
         <v>2092.229762364689</v>
       </c>
       <c r="U17" t="n">
-        <v>2092.229762364689</v>
+        <v>1837.46559452836</v>
       </c>
       <c r="V17" t="n">
-        <v>2092.229762364689</v>
+        <v>1644.86154435167</v>
       </c>
       <c r="W17" t="n">
-        <v>2092.229762364689</v>
+        <v>1644.86154435167</v>
       </c>
       <c r="X17" t="n">
-        <v>2092.229762364689</v>
+        <v>1644.86154435167</v>
       </c>
       <c r="Y17" t="n">
-        <v>2092.229762364689</v>
+        <v>1644.86154435167</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J18" t="n">
-        <v>184.5476517718283</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K18" t="n">
-        <v>201.9268193764628</v>
+        <v>406.99939608602</v>
       </c>
       <c r="L18" t="n">
-        <v>740.2038440375013</v>
+        <v>945.2764207470584</v>
       </c>
       <c r="M18" t="n">
-        <v>827.1218407820679</v>
+        <v>1067.651044551364</v>
       </c>
       <c r="N18" t="n">
-        <v>1436.633512803753</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O18" t="n">
         <v>1749.750845502266</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.25346844619677</v>
+        <v>322.5487704454285</v>
       </c>
       <c r="C19" t="n">
-        <v>49.25346844619677</v>
+        <v>322.5487704454285</v>
       </c>
       <c r="D19" t="n">
-        <v>49.25346844619677</v>
+        <v>322.5487704454285</v>
       </c>
       <c r="E19" t="n">
-        <v>49.25346844619677</v>
+        <v>322.5487704454285</v>
       </c>
       <c r="F19" t="n">
-        <v>49.25346844619677</v>
+        <v>322.5487704454285</v>
       </c>
       <c r="G19" t="n">
-        <v>49.25346844619677</v>
+        <v>322.5487704454285</v>
       </c>
       <c r="H19" t="n">
-        <v>49.25346844619677</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="I19" t="n">
         <v>49.25346844619677</v>
@@ -5703,22 +5703,22 @@
         <v>1156.593657701994</v>
       </c>
       <c r="T19" t="n">
-        <v>926.3175951678523</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="U19" t="n">
-        <v>926.3175951678523</v>
+        <v>869.4404763696068</v>
       </c>
       <c r="V19" t="n">
-        <v>665.582290726275</v>
+        <v>608.7051719280294</v>
       </c>
       <c r="W19" t="n">
-        <v>665.582290726275</v>
+        <v>322.5487704454285</v>
       </c>
       <c r="X19" t="n">
-        <v>434.3298266216508</v>
+        <v>322.5487704454285</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.2946678139279</v>
+        <v>322.5487704454285</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2027.537483394737</v>
+        <v>616.6418781217053</v>
       </c>
       <c r="C20" t="n">
-        <v>1645.603724727544</v>
+        <v>616.6418781217053</v>
       </c>
       <c r="D20" t="n">
-        <v>1272.779759954768</v>
+        <v>616.6418781217053</v>
       </c>
       <c r="E20" t="n">
-        <v>877.9940400608746</v>
+        <v>616.6418781217053</v>
       </c>
       <c r="F20" t="n">
-        <v>463.8428493710449</v>
+        <v>616.6418781217053</v>
       </c>
       <c r="G20" t="n">
-        <v>49.25346844619677</v>
+        <v>202.0524971968572</v>
       </c>
       <c r="H20" t="n">
-        <v>49.25346844619677</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="I20" t="n">
         <v>49.25346844619677</v>
@@ -5755,19 +5755,19 @@
         <v>49.25346844619677</v>
       </c>
       <c r="K20" t="n">
-        <v>193.92896289003</v>
+        <v>478.2233513049918</v>
       </c>
       <c r="L20" t="n">
-        <v>776.074041587289</v>
+        <v>1060.368430002251</v>
       </c>
       <c r="M20" t="n">
-        <v>1385.585713608974</v>
+        <v>1669.880102023936</v>
       </c>
       <c r="N20" t="n">
-        <v>1465.928376178606</v>
+        <v>2279.391774045621</v>
       </c>
       <c r="O20" t="n">
-        <v>2021.048607715024</v>
+        <v>2344.422172296886</v>
       </c>
       <c r="P20" t="n">
         <v>2462.673422309838</v>
@@ -5779,25 +5779,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S20" t="n">
-        <v>2409.567623873244</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="T20" t="n">
-        <v>2409.567623873244</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="U20" t="n">
-        <v>2409.567623873244</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="V20" t="n">
-        <v>2409.567623873244</v>
+        <v>1755.25048826063</v>
       </c>
       <c r="W20" t="n">
-        <v>2409.567623873244</v>
+        <v>1392.715558118231</v>
       </c>
       <c r="X20" t="n">
-        <v>2027.537483394737</v>
+        <v>1010.685417639724</v>
       </c>
       <c r="Y20" t="n">
-        <v>2027.537483394737</v>
+        <v>1010.685417639724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J21" t="n">
-        <v>49.25346844619677</v>
+        <v>184.5476517718283</v>
       </c>
       <c r="K21" t="n">
-        <v>66.63263605083129</v>
+        <v>542.2935794116515</v>
       </c>
       <c r="L21" t="n">
-        <v>604.9096607118697</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M21" t="n">
-        <v>1214.421332733555</v>
+        <v>1167.488600817257</v>
       </c>
       <c r="N21" t="n">
-        <v>1823.93300475524</v>
+        <v>1268.414082297125</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.908911888281</v>
+        <v>1849.588401768158</v>
       </c>
       <c r="P21" t="n">
-        <v>2462.673422309838</v>
+        <v>2303.352912189715</v>
       </c>
       <c r="Q21" t="n">
         <v>2462.673422309838</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2105.167048393337</v>
+        <v>203.1146444359266</v>
       </c>
       <c r="C22" t="n">
-        <v>2105.167048393337</v>
+        <v>203.1146444359266</v>
       </c>
       <c r="D22" t="n">
-        <v>2105.167048393337</v>
+        <v>203.1146444359266</v>
       </c>
       <c r="E22" t="n">
-        <v>1953.158034154656</v>
+        <v>202.5856305693156</v>
       </c>
       <c r="F22" t="n">
-        <v>1800.677379180433</v>
+        <v>202.5856305693156</v>
       </c>
       <c r="G22" t="n">
-        <v>1632.437030487687</v>
+        <v>202.5856305693156</v>
       </c>
       <c r="H22" t="n">
-        <v>1479.104868364568</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I22" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J22" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K22" t="n">
-        <v>1466.300556018595</v>
+        <v>160.2207914107512</v>
       </c>
       <c r="L22" t="n">
-        <v>1665.905813305117</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M22" t="n">
-        <v>1888.279017444997</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N22" t="n">
-        <v>2108.599141288241</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O22" t="n">
-        <v>2301.181882181363</v>
+        <v>995.1021175735183</v>
       </c>
       <c r="P22" t="n">
-        <v>2444.685510742497</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q22" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="R22" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S22" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T22" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="U22" t="n">
-        <v>2462.673422309838</v>
+        <v>869.4404763696068</v>
       </c>
       <c r="V22" t="n">
-        <v>2462.673422309838</v>
+        <v>608.7051719280294</v>
       </c>
       <c r="W22" t="n">
-        <v>2288.722417077717</v>
+        <v>608.7051719280294</v>
       </c>
       <c r="X22" t="n">
-        <v>2288.722417077717</v>
+        <v>608.7051719280294</v>
       </c>
       <c r="Y22" t="n">
-        <v>2288.722417077717</v>
+        <v>386.6700131203064</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1344.548910930483</v>
+        <v>2113.972964919332</v>
       </c>
       <c r="C23" t="n">
-        <v>962.6151522632902</v>
+        <v>1732.039206252139</v>
       </c>
       <c r="D23" t="n">
-        <v>589.7911874905137</v>
+        <v>1732.039206252139</v>
       </c>
       <c r="E23" t="n">
-        <v>589.7911874905137</v>
+        <v>1337.253486358246</v>
       </c>
       <c r="F23" t="n">
-        <v>175.6399968006841</v>
+        <v>923.1022956684163</v>
       </c>
       <c r="G23" t="n">
-        <v>175.6399968006841</v>
+        <v>508.5129147435682</v>
       </c>
       <c r="H23" t="n">
-        <v>175.6399968006841</v>
+        <v>191.2030951565743</v>
       </c>
       <c r="I23" t="n">
         <v>76.77772956758214</v>
@@ -6019,22 +6019,22 @@
         <v>3686.171578597176</v>
       </c>
       <c r="T23" t="n">
-        <v>3468.442818433957</v>
+        <v>3481.790086856246</v>
       </c>
       <c r="U23" t="n">
-        <v>3213.678650597628</v>
+        <v>3227.025919019917</v>
       </c>
       <c r="V23" t="n">
-        <v>2876.69937649357</v>
+        <v>2890.046644915858</v>
       </c>
       <c r="W23" t="n">
-        <v>2514.164446351171</v>
+        <v>2890.046644915858</v>
       </c>
       <c r="X23" t="n">
-        <v>2132.134305872664</v>
+        <v>2508.016504437351</v>
       </c>
       <c r="Y23" t="n">
-        <v>1738.592450448502</v>
+        <v>2508.016504437351</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J24" t="n">
-        <v>212.0719128932137</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="K24" t="n">
-        <v>569.8178405330368</v>
+        <v>434.5236572074053</v>
       </c>
       <c r="L24" t="n">
-        <v>630.8233407885234</v>
+        <v>972.8006818684438</v>
       </c>
       <c r="M24" t="n">
-        <v>1317.10375457934</v>
+        <v>1059.71867861301</v>
       </c>
       <c r="N24" t="n">
-        <v>2034.942871839362</v>
+        <v>1455.258853538633</v>
       </c>
       <c r="O24" t="n">
-        <v>2109.216386401245</v>
+        <v>2036.433173009666</v>
       </c>
       <c r="P24" t="n">
-        <v>2231.039617045208</v>
+        <v>2490.197683431223</v>
       </c>
       <c r="Q24" t="n">
         <v>2490.197683431223</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>397.4987332345514</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="C25" t="n">
-        <v>397.4987332345514</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="D25" t="n">
-        <v>397.4987332345514</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="E25" t="n">
-        <v>397.4987332345514</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="F25" t="n">
-        <v>245.0180782603285</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="G25" t="n">
         <v>76.77772956758214</v>
@@ -6174,25 +6174,25 @@
         <v>1184.117918823379</v>
       </c>
       <c r="S25" t="n">
-        <v>1034.341724831278</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="T25" t="n">
-        <v>1034.341724831278</v>
+        <v>953.8418562892376</v>
       </c>
       <c r="U25" t="n">
-        <v>1034.341724831278</v>
+        <v>666.6886749568505</v>
       </c>
       <c r="V25" t="n">
-        <v>1034.341724831278</v>
+        <v>405.9533705152731</v>
       </c>
       <c r="W25" t="n">
-        <v>1034.341724831278</v>
+        <v>119.7969690326722</v>
       </c>
       <c r="X25" t="n">
-        <v>803.0892607266542</v>
+        <v>119.7969690326722</v>
       </c>
       <c r="Y25" t="n">
-        <v>581.0541019189312</v>
+        <v>76.77772956758214</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1344.548910930483</v>
+        <v>1604.761879436447</v>
       </c>
       <c r="C26" t="n">
-        <v>962.6151522632902</v>
+        <v>1222.828120769254</v>
       </c>
       <c r="D26" t="n">
-        <v>905.5183011822598</v>
+        <v>1222.828120769254</v>
       </c>
       <c r="E26" t="n">
-        <v>905.5183011822598</v>
+        <v>1222.828120769254</v>
       </c>
       <c r="F26" t="n">
-        <v>491.3671104924302</v>
+        <v>808.6769300794242</v>
       </c>
       <c r="G26" t="n">
-        <v>76.77772956758214</v>
+        <v>394.087549154576</v>
       </c>
       <c r="H26" t="n">
         <v>76.77772956758214</v>
@@ -6271,7 +6271,7 @@
         <v>2132.134305872664</v>
       </c>
       <c r="Y26" t="n">
-        <v>1738.592450448502</v>
+        <v>1998.805418954466</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J27" t="n">
-        <v>76.77772956758214</v>
+        <v>212.0719128932137</v>
       </c>
       <c r="K27" t="n">
-        <v>94.15689717221667</v>
+        <v>569.8178405330368</v>
       </c>
       <c r="L27" t="n">
-        <v>632.4339218332551</v>
+        <v>1108.094865194075</v>
       </c>
       <c r="M27" t="n">
-        <v>1318.714335624072</v>
+        <v>1195.012861938642</v>
       </c>
       <c r="N27" t="n">
-        <v>1865.120436778232</v>
+        <v>1295.938343418511</v>
       </c>
       <c r="O27" t="n">
-        <v>2446.294756249265</v>
+        <v>1877.112662889544</v>
       </c>
       <c r="P27" t="n">
-        <v>2490.197683431223</v>
+        <v>2330.877173311101</v>
       </c>
       <c r="Q27" t="n">
         <v>2490.197683431223</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.9051898712136</v>
+        <v>1149.299407617435</v>
       </c>
       <c r="C28" t="n">
-        <v>365.9051898712136</v>
+        <v>979.6834380791153</v>
       </c>
       <c r="D28" t="n">
-        <v>365.9051898712136</v>
+        <v>826.611544906878</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9051898712136</v>
+        <v>674.6025306681968</v>
       </c>
       <c r="F28" t="n">
-        <v>365.9051898712136</v>
+        <v>522.1218756939739</v>
       </c>
       <c r="G28" t="n">
-        <v>365.9051898712136</v>
+        <v>353.8815270012276</v>
       </c>
       <c r="H28" t="n">
-        <v>212.5730277480948</v>
+        <v>200.5493648781088</v>
       </c>
       <c r="I28" t="n">
-        <v>88.8013924375681</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="J28" t="n">
         <v>76.77772956758214</v>
@@ -6417,19 +6417,19 @@
         <v>1184.117918823379</v>
       </c>
       <c r="U28" t="n">
-        <v>896.9647374909921</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="V28" t="n">
-        <v>896.9647374909921</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="W28" t="n">
-        <v>610.8083360083913</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="X28" t="n">
-        <v>379.5558719037671</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.9051898712136</v>
+        <v>1184.117918823379</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2055.061744516122</v>
+        <v>1344.548910930483</v>
       </c>
       <c r="C29" t="n">
-        <v>1673.127985848929</v>
+        <v>1278.342265955036</v>
       </c>
       <c r="D29" t="n">
-        <v>1300.304021076153</v>
+        <v>905.5183011822598</v>
       </c>
       <c r="E29" t="n">
         <v>905.5183011822598</v>
@@ -6490,25 +6490,25 @@
         <v>3838.886478379107</v>
       </c>
       <c r="S29" t="n">
-        <v>3838.886478379107</v>
+        <v>3686.171578597176</v>
       </c>
       <c r="T29" t="n">
-        <v>3621.157718215888</v>
+        <v>3468.442818433957</v>
       </c>
       <c r="U29" t="n">
-        <v>3366.393550379559</v>
+        <v>3213.678650597628</v>
       </c>
       <c r="V29" t="n">
-        <v>3366.393550379559</v>
+        <v>2876.69937649357</v>
       </c>
       <c r="W29" t="n">
-        <v>3224.67727993681</v>
+        <v>2514.164446351171</v>
       </c>
       <c r="X29" t="n">
-        <v>2842.647139458303</v>
+        <v>2132.134305872664</v>
       </c>
       <c r="Y29" t="n">
-        <v>2449.105284034141</v>
+        <v>1738.592450448502</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J30" t="n">
-        <v>76.77772956758214</v>
+        <v>112.2343566273211</v>
       </c>
       <c r="K30" t="n">
-        <v>94.15689717221667</v>
+        <v>469.9802842671443</v>
       </c>
       <c r="L30" t="n">
-        <v>461.0009057273932</v>
+        <v>1008.257308928183</v>
       </c>
       <c r="M30" t="n">
-        <v>1147.28131951821</v>
+        <v>1095.175305672749</v>
       </c>
       <c r="N30" t="n">
-        <v>1865.120436778232</v>
+        <v>1196.100787152618</v>
       </c>
       <c r="O30" t="n">
-        <v>2446.294756249265</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P30" t="n">
-        <v>2490.197683431223</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q30" t="n">
         <v>2490.197683431223</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>518.2527233344038</v>
+        <v>246.3936991059019</v>
       </c>
       <c r="C31" t="n">
-        <v>518.2527233344038</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="D31" t="n">
-        <v>365.1808301621664</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="E31" t="n">
-        <v>213.1718159234853</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="F31" t="n">
-        <v>213.1718159234853</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="G31" t="n">
         <v>76.77772956758214</v>
@@ -6645,28 +6645,28 @@
         <v>1184.117918823379</v>
       </c>
       <c r="R31" t="n">
-        <v>1065.144429258582</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="S31" t="n">
-        <v>1065.144429258582</v>
+        <v>1178.630775761435</v>
       </c>
       <c r="T31" t="n">
-        <v>1065.144429258582</v>
+        <v>948.3547132272931</v>
       </c>
       <c r="U31" t="n">
-        <v>1065.144429258582</v>
+        <v>661.2015318949059</v>
       </c>
       <c r="V31" t="n">
-        <v>804.4091248170046</v>
+        <v>661.2015318949059</v>
       </c>
       <c r="W31" t="n">
-        <v>518.2527233344038</v>
+        <v>661.2015318949059</v>
       </c>
       <c r="X31" t="n">
-        <v>518.2527233344038</v>
+        <v>429.9490677902817</v>
       </c>
       <c r="Y31" t="n">
-        <v>518.2527233344038</v>
+        <v>429.9490677902817</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1344.548910930483</v>
+        <v>1955.819526517864</v>
       </c>
       <c r="C32" t="n">
-        <v>962.6151522632902</v>
+        <v>1573.885767850671</v>
       </c>
       <c r="D32" t="n">
-        <v>962.6151522632902</v>
+        <v>1201.061803077895</v>
       </c>
       <c r="E32" t="n">
-        <v>605.354285846404</v>
+        <v>806.2760831840017</v>
       </c>
       <c r="F32" t="n">
-        <v>191.2030951565743</v>
+        <v>491.3671104924302</v>
       </c>
       <c r="G32" t="n">
-        <v>191.2030951565743</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="H32" t="n">
-        <v>191.2030951565743</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="I32" t="n">
         <v>76.77772956758214</v>
@@ -6730,22 +6730,22 @@
         <v>3686.171578597176</v>
       </c>
       <c r="T32" t="n">
-        <v>3468.442818433957</v>
+        <v>3686.171578597176</v>
       </c>
       <c r="U32" t="n">
-        <v>3213.678650597628</v>
+        <v>3431.407410760848</v>
       </c>
       <c r="V32" t="n">
-        <v>2876.69937649357</v>
+        <v>3094.428136656789</v>
       </c>
       <c r="W32" t="n">
-        <v>2514.164446351171</v>
+        <v>2731.89320651439</v>
       </c>
       <c r="X32" t="n">
-        <v>2132.134305872664</v>
+        <v>2349.863066035883</v>
       </c>
       <c r="Y32" t="n">
-        <v>1738.592450448502</v>
+        <v>2349.863066035883</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>76.77772956758214</v>
       </c>
       <c r="K33" t="n">
-        <v>94.15689717221667</v>
+        <v>434.5236572074053</v>
       </c>
       <c r="L33" t="n">
-        <v>632.4339218332551</v>
+        <v>972.8006818684438</v>
       </c>
       <c r="M33" t="n">
-        <v>1318.714335624072</v>
+        <v>1095.175305672749</v>
       </c>
       <c r="N33" t="n">
-        <v>1865.120436778232</v>
+        <v>1196.100787152618</v>
       </c>
       <c r="O33" t="n">
-        <v>2446.294756249265</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P33" t="n">
-        <v>2490.197683431223</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q33" t="n">
         <v>2490.197683431223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2813.265674222254</v>
+        <v>521.2703685450781</v>
       </c>
       <c r="C34" t="n">
-        <v>2813.265674222254</v>
+        <v>521.2703685450781</v>
       </c>
       <c r="D34" t="n">
-        <v>2813.265674222254</v>
+        <v>521.2703685450781</v>
       </c>
       <c r="E34" t="n">
-        <v>2813.265674222254</v>
+        <v>521.2703685450781</v>
       </c>
       <c r="F34" t="n">
-        <v>2731.54628912331</v>
+        <v>368.7897135708552</v>
       </c>
       <c r="G34" t="n">
-        <v>2731.54628912331</v>
+        <v>200.5493648781088</v>
       </c>
       <c r="H34" t="n">
-        <v>2731.54628912331</v>
+        <v>200.5493648781088</v>
       </c>
       <c r="I34" t="n">
-        <v>2731.54628912331</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="J34" t="n">
-        <v>2731.54628912331</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="K34" t="n">
-        <v>2842.513612087864</v>
+        <v>187.7450525321365</v>
       </c>
       <c r="L34" t="n">
-        <v>3042.118869374385</v>
+        <v>387.3503098186578</v>
       </c>
       <c r="M34" t="n">
-        <v>3264.492073514266</v>
+        <v>609.7235139585384</v>
       </c>
       <c r="N34" t="n">
-        <v>3484.81219735751</v>
+        <v>830.0436378017822</v>
       </c>
       <c r="O34" t="n">
-        <v>3677.394938250631</v>
+        <v>1022.626378694904</v>
       </c>
       <c r="P34" t="n">
-        <v>3820.898566811766</v>
+        <v>1166.130007256038</v>
       </c>
       <c r="Q34" t="n">
-        <v>3838.886478379107</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="R34" t="n">
-        <v>3838.886478379107</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="S34" t="n">
-        <v>3838.886478379107</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="T34" t="n">
-        <v>3608.610415844965</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="U34" t="n">
-        <v>3321.457234512578</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="V34" t="n">
-        <v>3321.457234512578</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="W34" t="n">
-        <v>3035.300833029977</v>
+        <v>696.0918427793467</v>
       </c>
       <c r="X34" t="n">
-        <v>3035.300833029977</v>
+        <v>696.0918427793467</v>
       </c>
       <c r="Y34" t="n">
-        <v>2813.265674222254</v>
+        <v>696.0918427793467</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>853.8126183949593</v>
+        <v>1289.925564205906</v>
       </c>
       <c r="C35" t="n">
-        <v>853.8126183949593</v>
+        <v>1289.925564205906</v>
       </c>
       <c r="D35" t="n">
-        <v>480.9886536221828</v>
+        <v>1289.925564205906</v>
       </c>
       <c r="E35" t="n">
-        <v>480.9886536221828</v>
+        <v>895.1398443120124</v>
       </c>
       <c r="F35" t="n">
         <v>480.9886536221828</v>
@@ -6937,22 +6937,22 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J35" t="n">
-        <v>49.25346844619677</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K35" t="n">
-        <v>61.04820532590273</v>
+        <v>608.0839003067284</v>
       </c>
       <c r="L35" t="n">
-        <v>643.1932840231617</v>
+        <v>1190.228979003987</v>
       </c>
       <c r="M35" t="n">
-        <v>1252.704956044847</v>
+        <v>1799.740651025672</v>
       </c>
       <c r="N35" t="n">
-        <v>1862.216628066532</v>
+        <v>1880.083313595304</v>
       </c>
       <c r="O35" t="n">
-        <v>2417.33685960295</v>
+        <v>2435.203545131722</v>
       </c>
       <c r="P35" t="n">
         <v>2462.673422309838</v>
@@ -6964,25 +6964,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S35" t="n">
-        <v>2407.849891119472</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="T35" t="n">
-        <v>2190.121130956252</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="U35" t="n">
-        <v>1935.356963119924</v>
+        <v>2383.483307970382</v>
       </c>
       <c r="V35" t="n">
-        <v>1598.377689015865</v>
+        <v>2046.504033866324</v>
       </c>
       <c r="W35" t="n">
-        <v>1235.842758873466</v>
+        <v>1683.969103723925</v>
       </c>
       <c r="X35" t="n">
-        <v>853.8126183949593</v>
+        <v>1683.969103723925</v>
       </c>
       <c r="Y35" t="n">
-        <v>853.8126183949593</v>
+        <v>1683.969103723925</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>892.0277972157131</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C36" t="n">
-        <v>730.324124456668</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D36" t="n">
-        <v>591.4854874468799</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E36" t="n">
-        <v>444.4574775037511</v>
+        <v>444.4574775037514</v>
       </c>
       <c r="F36" t="n">
-        <v>309.7636794536255</v>
+        <v>309.7636794536257</v>
       </c>
       <c r="G36" t="n">
-        <v>181.8455649277871</v>
+        <v>181.8455649277874</v>
       </c>
       <c r="H36" t="n">
         <v>89.73432485532445</v>
@@ -7028,10 +7028,10 @@
         <v>1214.421332733555</v>
       </c>
       <c r="N36" t="n">
-        <v>1427.734592417248</v>
+        <v>1823.93300475524</v>
       </c>
       <c r="O36" t="n">
-        <v>2008.908911888281</v>
+        <v>2405.107324226272</v>
       </c>
       <c r="P36" t="n">
         <v>2462.673422309838</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.9413311567538</v>
+        <v>521.9834863518472</v>
       </c>
       <c r="C37" t="n">
-        <v>202.325361618434</v>
+        <v>521.9834863518472</v>
       </c>
       <c r="D37" t="n">
-        <v>49.25346844619677</v>
+        <v>521.9834863518472</v>
       </c>
       <c r="E37" t="n">
-        <v>49.25346844619677</v>
+        <v>369.974472113166</v>
       </c>
       <c r="F37" t="n">
-        <v>49.25346844619677</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="G37" t="n">
         <v>49.25346844619677</v>
@@ -7131,16 +7131,16 @@
         <v>1156.593657701994</v>
       </c>
       <c r="V37" t="n">
-        <v>1008.784322753481</v>
+        <v>895.8583532604166</v>
       </c>
       <c r="W37" t="n">
-        <v>1008.784322753481</v>
+        <v>609.7019517778158</v>
       </c>
       <c r="X37" t="n">
-        <v>777.5318586488565</v>
+        <v>609.7019517778158</v>
       </c>
       <c r="Y37" t="n">
-        <v>555.4966998411336</v>
+        <v>609.7019517778158</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1240.562327932131</v>
+        <v>577.8300247250186</v>
       </c>
       <c r="C38" t="n">
-        <v>858.6285692649381</v>
+        <v>577.8300247250186</v>
       </c>
       <c r="D38" t="n">
-        <v>858.6285692649381</v>
+        <v>577.8300247250186</v>
       </c>
       <c r="E38" t="n">
-        <v>463.8428493710449</v>
+        <v>577.8300247250186</v>
       </c>
       <c r="F38" t="n">
-        <v>463.8428493710449</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="G38" t="n">
-        <v>49.25346844619677</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="H38" t="n">
-        <v>49.25346844619677</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="I38" t="n">
         <v>49.25346844619677</v>
@@ -7177,13 +7177,13 @@
         <v>49.25346844619677</v>
       </c>
       <c r="K38" t="n">
-        <v>61.04820532590273</v>
+        <v>478.2233513049918</v>
       </c>
       <c r="L38" t="n">
-        <v>643.1932840231617</v>
+        <v>1060.368430002251</v>
       </c>
       <c r="M38" t="n">
-        <v>856.4167041569206</v>
+        <v>1135.742738156728</v>
       </c>
       <c r="N38" t="n">
         <v>1465.928376178606</v>
@@ -7201,25 +7201,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S38" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="T38" t="n">
-        <v>2462.673422309838</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="U38" t="n">
-        <v>2462.673422309838</v>
+        <v>1837.46559452836</v>
       </c>
       <c r="V38" t="n">
-        <v>2410.177863352819</v>
+        <v>1837.46559452836</v>
       </c>
       <c r="W38" t="n">
-        <v>2410.177863352819</v>
+        <v>1474.930664385961</v>
       </c>
       <c r="X38" t="n">
-        <v>2028.147722874312</v>
+        <v>1365.4154196672</v>
       </c>
       <c r="Y38" t="n">
-        <v>1634.60586745015</v>
+        <v>971.8735642430377</v>
       </c>
     </row>
     <row r="39">
@@ -7253,31 +7253,31 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J39" t="n">
-        <v>49.25346844619677</v>
+        <v>184.5476517718283</v>
       </c>
       <c r="K39" t="n">
-        <v>66.63263605083129</v>
+        <v>542.2935794116515</v>
       </c>
       <c r="L39" t="n">
-        <v>604.9096607118697</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M39" t="n">
-        <v>1214.421332733555</v>
+        <v>1574.551849460516</v>
       </c>
       <c r="N39" t="n">
-        <v>1823.93300475524</v>
+        <v>1675.477330940384</v>
       </c>
       <c r="O39" t="n">
-        <v>2405.107324226272</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P39" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q39" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="R39" t="n">
-        <v>2453.204137802221</v>
+        <v>2453.204137802222</v>
       </c>
       <c r="S39" t="n">
         <v>2315.457205132788</v>
@@ -7295,7 +7295,7 @@
         <v>1441.885554469601</v>
       </c>
       <c r="X39" t="n">
-        <v>1243.968566347395</v>
+        <v>1243.968566347396</v>
       </c>
       <c r="Y39" t="n">
         <v>1051.447239996974</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1363.665709875503</v>
+        <v>354.8060165926569</v>
       </c>
       <c r="C40" t="n">
-        <v>1355.333233054041</v>
+        <v>354.8060165926569</v>
       </c>
       <c r="D40" t="n">
-        <v>1355.333233054041</v>
+        <v>201.7341234204196</v>
       </c>
       <c r="E40" t="n">
-        <v>1355.333233054041</v>
+        <v>201.7341234204196</v>
       </c>
       <c r="F40" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="G40" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H40" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I40" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J40" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K40" t="n">
-        <v>1466.300556018595</v>
+        <v>160.2207914107512</v>
       </c>
       <c r="L40" t="n">
-        <v>1665.905813305117</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M40" t="n">
-        <v>1888.279017444997</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N40" t="n">
-        <v>2108.599141288241</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O40" t="n">
-        <v>2301.181882181363</v>
+        <v>995.1021175735183</v>
       </c>
       <c r="P40" t="n">
-        <v>2444.685510742497</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="R40" t="n">
-        <v>2343.699932745041</v>
+        <v>1037.620168137197</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.830258183609</v>
+        <v>902.6945023666215</v>
       </c>
       <c r="T40" t="n">
-        <v>1911.554195649467</v>
+        <v>902.6945023666215</v>
       </c>
       <c r="U40" t="n">
-        <v>1624.40101431708</v>
+        <v>615.5413210342343</v>
       </c>
       <c r="V40" t="n">
-        <v>1363.665709875503</v>
+        <v>354.8060165926569</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.665709875503</v>
+        <v>354.8060165926569</v>
       </c>
       <c r="X40" t="n">
-        <v>1363.665709875503</v>
+        <v>354.8060165926569</v>
       </c>
       <c r="Y40" t="n">
-        <v>1363.665709875503</v>
+        <v>354.8060165926569</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1309.729225236861</v>
+        <v>1675.088027367657</v>
       </c>
       <c r="C41" t="n">
-        <v>1309.729225236861</v>
+        <v>1293.154268700465</v>
       </c>
       <c r="D41" t="n">
-        <v>1309.729225236861</v>
+        <v>1293.154268700465</v>
       </c>
       <c r="E41" t="n">
-        <v>1309.729225236861</v>
+        <v>1195.303859647868</v>
       </c>
       <c r="F41" t="n">
-        <v>895.5780345470309</v>
+        <v>781.1526689580388</v>
       </c>
       <c r="G41" t="n">
-        <v>480.9886536221828</v>
+        <v>366.5632880331907</v>
       </c>
       <c r="H41" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I41" t="n">
         <v>49.25346844619677</v>
@@ -7447,16 +7447,16 @@
         <v>2462.673422309838</v>
       </c>
       <c r="V41" t="n">
-        <v>2447.836151281928</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="W41" t="n">
-        <v>2085.301221139529</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="X41" t="n">
-        <v>1703.271080661023</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Y41" t="n">
-        <v>1309.729225236861</v>
+        <v>2069.131566885676</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>49.25346844619677</v>
       </c>
       <c r="K42" t="n">
-        <v>177.3350286219904</v>
+        <v>406.99939608602</v>
       </c>
       <c r="L42" t="n">
-        <v>715.6120532830289</v>
+        <v>945.2764207470584</v>
       </c>
       <c r="M42" t="n">
-        <v>1325.123725304714</v>
+        <v>1032.194417491625</v>
       </c>
       <c r="N42" t="n">
-        <v>1934.635397326399</v>
+        <v>1641.70608951331</v>
       </c>
       <c r="O42" t="n">
-        <v>2008.908911888281</v>
+        <v>2222.880408984343</v>
       </c>
       <c r="P42" t="n">
         <v>2462.673422309838</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>202.325361618434</v>
+        <v>259.0153616636896</v>
       </c>
       <c r="C43" t="n">
-        <v>202.325361618434</v>
+        <v>259.0153616636896</v>
       </c>
       <c r="D43" t="n">
-        <v>49.25346844619677</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="E43" t="n">
-        <v>49.25346844619677</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="F43" t="n">
-        <v>49.25346844619677</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="G43" t="n">
         <v>49.25346844619677</v>
@@ -7593,28 +7593,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R43" t="n">
-        <v>1041.038027776593</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S43" t="n">
-        <v>839.168353215161</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T43" t="n">
-        <v>839.168353215161</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="U43" t="n">
-        <v>839.168353215161</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="V43" t="n">
-        <v>839.168353215161</v>
+        <v>895.8583532604166</v>
       </c>
       <c r="W43" t="n">
-        <v>839.168353215161</v>
+        <v>895.8583532604166</v>
       </c>
       <c r="X43" t="n">
-        <v>607.9158891105368</v>
+        <v>664.6058891557924</v>
       </c>
       <c r="Y43" t="n">
-        <v>385.8807303028138</v>
+        <v>442.5707303480694</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1675.088027367657</v>
+        <v>858.1903790299195</v>
       </c>
       <c r="C44" t="n">
-        <v>1675.088027367657</v>
+        <v>858.1903790299195</v>
       </c>
       <c r="D44" t="n">
-        <v>1675.088027367657</v>
+        <v>858.1903790299195</v>
       </c>
       <c r="E44" t="n">
-        <v>1309.729225236861</v>
+        <v>463.4046591360265</v>
       </c>
       <c r="F44" t="n">
-        <v>895.5780345470309</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="G44" t="n">
-        <v>480.9886536221828</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H44" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I44" t="n">
         <v>49.25346844619677</v>
       </c>
       <c r="J44" t="n">
-        <v>49.25346844619677</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K44" t="n">
-        <v>61.04820532590273</v>
+        <v>676.2140042495211</v>
       </c>
       <c r="L44" t="n">
-        <v>526.3046258832802</v>
+        <v>1258.35908294678</v>
       </c>
       <c r="M44" t="n">
-        <v>601.6789340377575</v>
+        <v>1385.585713608974</v>
       </c>
       <c r="N44" t="n">
-        <v>1211.190606059442</v>
+        <v>1465.928376178606</v>
       </c>
       <c r="O44" t="n">
-        <v>1766.310837595861</v>
+        <v>2021.048607715024</v>
       </c>
       <c r="P44" t="n">
-        <v>2207.935652190675</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q44" t="n">
         <v>2462.673422309838</v>
@@ -7675,25 +7675,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S44" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="T44" t="n">
-        <v>2462.673422309838</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="U44" t="n">
-        <v>2462.673422309838</v>
+        <v>1837.46559452836</v>
       </c>
       <c r="V44" t="n">
-        <v>2462.673422309838</v>
+        <v>1614.768848690338</v>
       </c>
       <c r="W44" t="n">
-        <v>2462.673422309838</v>
+        <v>1252.233918547939</v>
       </c>
       <c r="X44" t="n">
-        <v>2462.673422309838</v>
+        <v>1252.233918547939</v>
       </c>
       <c r="Y44" t="n">
-        <v>2069.131566885676</v>
+        <v>1252.233918547939</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>892.0277972157139</v>
+        <v>892.0277972157131</v>
       </c>
       <c r="C45" t="n">
-        <v>730.3241244566686</v>
+        <v>730.324124456668</v>
       </c>
       <c r="D45" t="n">
-        <v>591.4854874468807</v>
+        <v>591.4854874468799</v>
       </c>
       <c r="E45" t="n">
-        <v>444.4574775037514</v>
+        <v>444.4574775037511</v>
       </c>
       <c r="F45" t="n">
-        <v>309.7636794536257</v>
+        <v>309.7636794536255</v>
       </c>
       <c r="G45" t="n">
-        <v>181.8455649277874</v>
+        <v>181.8455649277871</v>
       </c>
       <c r="H45" t="n">
         <v>89.73432485532445</v>
@@ -7736,22 +7736,22 @@
         <v>1080.57060407269</v>
       </c>
       <c r="M45" t="n">
-        <v>1690.082276094375</v>
+        <v>1167.488600817257</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.007757574244</v>
+        <v>1268.414082297125</v>
       </c>
       <c r="O45" t="n">
-        <v>2372.182077045276</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P45" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q45" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="R45" t="n">
-        <v>2453.204137802222</v>
+        <v>2453.204137802221</v>
       </c>
       <c r="S45" t="n">
         <v>2315.457205132788</v>
@@ -7769,10 +7769,10 @@
         <v>1441.885554469601</v>
       </c>
       <c r="X45" t="n">
-        <v>1243.968566347396</v>
+        <v>1243.968566347395</v>
       </c>
       <c r="Y45" t="n">
-        <v>1051.447239996975</v>
+        <v>1051.447239996974</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.25346844619677</v>
+        <v>399.7287062026262</v>
       </c>
       <c r="C46" t="n">
-        <v>49.25346844619677</v>
+        <v>399.7287062026262</v>
       </c>
       <c r="D46" t="n">
-        <v>49.25346844619677</v>
+        <v>399.7287062026262</v>
       </c>
       <c r="E46" t="n">
-        <v>49.25346844619677</v>
+        <v>399.7287062026262</v>
       </c>
       <c r="F46" t="n">
-        <v>49.25346844619677</v>
+        <v>247.2480512284033</v>
       </c>
       <c r="G46" t="n">
-        <v>49.25346844619677</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="H46" t="n">
-        <v>49.25346844619677</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="I46" t="n">
         <v>49.25346844619677</v>
@@ -7830,28 +7830,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R46" t="n">
-        <v>1049.432797282722</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S46" t="n">
-        <v>1049.432797282722</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.432797282722</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="U46" t="n">
-        <v>1049.432797282722</v>
+        <v>869.4404763696068</v>
       </c>
       <c r="V46" t="n">
-        <v>788.6974928411448</v>
+        <v>869.4404763696068</v>
       </c>
       <c r="W46" t="n">
-        <v>502.5410913585439</v>
+        <v>583.284074887006</v>
       </c>
       <c r="X46" t="n">
-        <v>271.2886272539197</v>
+        <v>583.284074887006</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.25346844619677</v>
+        <v>583.284074887006</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>159.0427441082865</v>
+        <v>158.5602008080702</v>
       </c>
       <c r="K2" t="n">
         <v>178.8230039740467</v>
@@ -7993,7 +7993,7 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>198.415200160258</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P2" t="n">
         <v>199.8197557315104</v>
@@ -8057,19 +8057,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L3" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>127.4268492419938</v>
+        <v>126.9443059417775</v>
       </c>
       <c r="N3" t="n">
-        <v>118.1755444478459</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
         <v>115.8594486111111</v>
@@ -8142,7 +8142,7 @@
         <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>121.53674615886</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M4" t="n">
         <v>124.3376028375667</v>
@@ -8154,7 +8154,7 @@
         <v>124.4388841724762</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K5" t="n">
-        <v>190.2834073541843</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
         <v>203.5031588434685</v>
@@ -8227,7 +8227,7 @@
         <v>199.099261177513</v>
       </c>
       <c r="N5" t="n">
-        <v>198.341060852584</v>
+        <v>197.8585175523677</v>
       </c>
       <c r="O5" t="n">
         <v>186.9547967801205</v>
@@ -8294,10 +8294,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>123.4565725468042</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
@@ -8306,10 +8306,10 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P6" t="n">
         <v>120.7971527044972</v>
@@ -8376,7 +8376,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>116.7662189439139</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
         <v>109.5937994785061</v>
@@ -8391,7 +8391,7 @@
         <v>124.4388841724762</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>190.7659506544006</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>203.5031588434685</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>198.415200160258</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0837764031278</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8531,28 +8531,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M9" t="n">
-        <v>127.4268492419938</v>
+        <v>126.9443059417775</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>127.3198519912487</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6781381252464</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8613,22 +8613,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L10" t="n">
-        <v>121.0542028586437</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N10" t="n">
         <v>115.6874515583558</v>
       </c>
       <c r="O10" t="n">
-        <v>124.4388841724762</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>19.83504119386834</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>18.04715709977004</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
         <v>539.5326907749572</v>
       </c>
       <c r="N11" t="n">
-        <v>534.5141509616701</v>
+        <v>534.5141509616702</v>
       </c>
       <c r="O11" t="n">
-        <v>437.7180925041695</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>18.6986089496306</v>
@@ -8771,13 +8771,13 @@
         <v>27.25755470451983</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>113.5230082866917</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>35.81477480781773</v>
+        <v>527.8723992698166</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>11.32464942426569</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8929,28 +8929,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>539.5326907749572</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>534.5141509616701</v>
       </c>
       <c r="O14" t="n">
-        <v>171.9617856420082</v>
+        <v>434.6673767845826</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963057</v>
       </c>
       <c r="R14" t="n">
-        <v>80.97282258948577</v>
+        <v>80.97282258948576</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>27.25755470451982</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>265.9596235449395</v>
       </c>
       <c r="N15" t="n">
-        <v>381.2464324643028</v>
+        <v>513.7234247897134</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>11.32464942426567</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9172,22 +9172,22 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>539.5326907749572</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>131.1722717189259</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>408.9355603402458</v>
       </c>
       <c r="Q17" t="n">
-        <v>18.69860894963057</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
-        <v>80.97282258948576</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>27.25755470451982</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>35.81477480781723</v>
       </c>
       <c r="N18" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.2563819561928</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9403,7 +9403,7 @@
         <v>19.83504119386832</v>
       </c>
       <c r="K20" t="n">
-        <v>134.2229874385124</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9412,13 +9412,13 @@
         <v>539.5326907749572</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>534.5141509616701</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>91.69835639882416</v>
       </c>
       <c r="Q20" t="n">
         <v>18.69860894963057</v>
@@ -9479,28 +9479,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>527.8723992698166</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>111.8205985567264</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.32464942426567</v>
+        <v>172.2544576264095</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>27.25755470451982</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>297.5905994401555</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>78.70737723434895</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>11.32464942426567</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>449.9804239134259</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.32464942426567</v>
+        <v>172.2544576264095</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>27.25755470451982</v>
+        <v>63.07232951233691</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>308.9277861613029</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10430,25 +10430,25 @@
         <v>27.25755470451982</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>35.81477480781712</v>
       </c>
       <c r="N33" t="n">
-        <v>449.9804239134259</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>19.83504119386832</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>352.5707495316125</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10597,13 +10597,13 @@
         <v>539.5326907749572</v>
       </c>
       <c r="N35" t="n">
-        <v>534.5141509616701</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>18.04715709976959</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>18.69860894963057</v>
@@ -10676,13 +10676,13 @@
         <v>527.8723992698166</v>
       </c>
       <c r="N36" t="n">
-        <v>113.5230082866917</v>
+        <v>513.7234247897134</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>13.80118272889635</v>
       </c>
       <c r="Q36" t="n">
         <v>11.32464942426567</v>
@@ -10825,16 +10825,16 @@
         <v>19.83504119386832</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>139.2415272517995</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>534.5141509616701</v>
+        <v>252.3666418709553</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10901,28 +10901,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>527.8723992698166</v>
+        <v>411.1749986295545</v>
       </c>
       <c r="N39" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>13.80118272889635</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11141,22 +11141,22 @@
         <v>27.25755470451982</v>
       </c>
       <c r="K42" t="n">
-        <v>111.8205985567264</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>527.8723992698165</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>513.7234247897134</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>197.8687738823604</v>
       </c>
       <c r="Q42" t="n">
         <v>11.32464942426567</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>19.83504119386832</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>424.8902272591396</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>52.37608334112787</v>
       </c>
       <c r="N44" t="n">
-        <v>534.5141509616701</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11317,7 +11317,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963057</v>
       </c>
       <c r="R44" t="n">
         <v>80.97282258948576</v>
@@ -11384,19 +11384,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>527.8723992698166</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>411.1749986295545</v>
       </c>
       <c r="P45" t="n">
-        <v>47.05900816424625</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.32464942426567</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23260,19 +23260,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>294.9070266632376</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>274.4609827477116</v>
       </c>
       <c r="H11" t="n">
         <v>314.136721391124</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.1575187667732</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -23424,19 +23424,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5579452058188</v>
+        <v>153.4763928548623</v>
       </c>
       <c r="H13" t="n">
         <v>151.7988405018876</v>
       </c>
       <c r="I13" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>11.90342624128611</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>147.0862460102716</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T14" t="n">
         <v>215.551472561587</v>
@@ -23554,13 +23554,13 @@
         <v>252.2165261579655</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>133.6278772443571</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23676,7 +23676,7 @@
         <v>122.5339189574214</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.9034262412861</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>157.2619307453783</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3.65427418803921</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>49.23575575285003</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>314.136721391124</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>142.9314716880953</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.30902762348222</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23907,10 +23907,10 @@
         <v>166.5579452058188</v>
       </c>
       <c r="H19" t="n">
-        <v>151.7988405018876</v>
+        <v>3.770410480069586</v>
       </c>
       <c r="I19" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>11.9034262412861</v>
@@ -23943,22 +23943,22 @@
         <v>199.8509778158173</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>314.136721391124</v>
+        <v>276.1467948610724</v>
       </c>
       <c r="I20" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>98.61301033188238</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.2165261579655</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>149.9652003683494</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J22" t="n">
         <v>11.9034262412861</v>
@@ -24183,19 +24183,19 @@
         <v>227.9733019088003</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>111.0833422879745</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>15.40746737233133</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>13.2137957380655</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24375,10 +24375,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H25" t="n">
         <v>151.7988405018876</v>
@@ -24414,25 +24414,25 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S25" t="n">
-        <v>51.57254576363752</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>177.2257601492065</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>312.5698425548287</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>113.2811119331022</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>257.6108388209042</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>147.2494889036511</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>11.9034262412861</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>227.9733019088003</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.3006320074177</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>312.5698425548286</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>218.6104731026537</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>31.52779971347474</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H31" t="n">
         <v>151.7988405018876</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S31" t="n">
-        <v>199.8509778158173</v>
+        <v>194.4187061844924</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>37.14960494223692</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>98.24979581827569</v>
       </c>
       <c r="G32" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>314.136721391124</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>8.646555505610081</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25086,16 +25086,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>70.05365717652539</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>151.7988405018876</v>
       </c>
       <c r="I34" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>11.9034262412861</v>
@@ -25125,13 +25125,13 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S34" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25143,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.4434871155996</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.9124549056481</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>173.818312961904</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>94.87853422582712</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.7988405018876</v>
@@ -25371,16 +25371,16 @@
         <v>284.2816495190633</v>
       </c>
       <c r="V37" t="n">
-        <v>111.7967097981334</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H38" t="n">
         <v>314.136721391124</v>
       </c>
       <c r="I38" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>281.6388779955687</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>269.7897468021481</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>159.6706577896896</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.5579452058188</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>66.27456870294782</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>293.965957732884</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>252.2165261579655</v>
       </c>
       <c r="V41" t="n">
-        <v>318.9205830453872</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.4348451610158</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -25800,7 +25800,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>151.7988405018876</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.383681043001957</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T43" t="n">
         <v>227.9733019088003</v>
@@ -25845,7 +25845,7 @@
         <v>284.2816495190633</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25873,19 +25873,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>29.13264858546552</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>113.1397029833761</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26034,16 +26034,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5579452058188</v>
+        <v>93.07722720885577</v>
       </c>
       <c r="H46" t="n">
         <v>151.7988405018876</v>
       </c>
       <c r="I46" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>11.9034262412861</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.69450285407036</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S46" t="n">
         <v>199.8509778158173</v>
@@ -26079,19 +26079,19 @@
         <v>227.9733019088003</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620079.2805092428</v>
+        <v>620079.2805092429</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620079.2805092428</v>
+        <v>620079.2805092429</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620079.280509243</v>
+        <v>620079.2805092428</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758839.4119006458</v>
+        <v>758839.4119006457</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620079.2805092428</v>
+        <v>620079.2805092429</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620079.2805092428</v>
+        <v>620079.2805092429</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620079.2805092428</v>
+        <v>620079.2805092429</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556527.4438582819</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="C2" t="n">
-        <v>556527.4438582819</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="D2" t="n">
         <v>556527.4438582819</v>
       </c>
       <c r="E2" t="n">
-        <v>379774.5696321549</v>
+        <v>379774.5696321545</v>
       </c>
       <c r="F2" t="n">
-        <v>379774.5696321547</v>
+        <v>379774.5696321545</v>
       </c>
       <c r="G2" t="n">
-        <v>379774.5696321547</v>
+        <v>379774.5696321546</v>
       </c>
       <c r="H2" t="n">
         <v>379774.5696321545</v>
@@ -26337,25 +26337,25 @@
         <v>456829.0716850325</v>
       </c>
       <c r="J2" t="n">
+        <v>456829.0716850322</v>
+      </c>
+      <c r="K2" t="n">
+        <v>456829.0716850323</v>
+      </c>
+      <c r="L2" t="n">
         <v>456829.0716850326</v>
-      </c>
-      <c r="K2" t="n">
-        <v>456829.0716850324</v>
-      </c>
-      <c r="L2" t="n">
-        <v>456829.0716850327</v>
       </c>
       <c r="M2" t="n">
         <v>379774.5696321546</v>
       </c>
       <c r="N2" t="n">
-        <v>379774.5696321547</v>
+        <v>379774.5696321549</v>
       </c>
       <c r="O2" t="n">
-        <v>379774.5696321546</v>
+        <v>379774.5696321545</v>
       </c>
       <c r="P2" t="n">
-        <v>379774.5696321547</v>
+        <v>379774.5696321548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4002.356120360259</v>
+        <v>4002.356120360235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>83642.99703601307</v>
       </c>
       <c r="F4" t="n">
-        <v>83642.99703601304</v>
+        <v>83642.99703601305</v>
       </c>
       <c r="G4" t="n">
         <v>83642.99703601305</v>
       </c>
       <c r="H4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601304</v>
       </c>
       <c r="I4" t="n">
         <v>113626.6648779584</v>
@@ -26444,16 +26444,16 @@
         <v>113626.6648779584</v>
       </c>
       <c r="K4" t="n">
+        <v>113626.6648779584</v>
+      </c>
+      <c r="L4" t="n">
         <v>113626.6648779585</v>
       </c>
-      <c r="L4" t="n">
-        <v>113626.6648779584</v>
-      </c>
       <c r="M4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601307</v>
       </c>
       <c r="N4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601304</v>
       </c>
       <c r="O4" t="n">
         <v>83642.99703601304</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135668.8386434749</v>
+        <v>135668.8386434747</v>
       </c>
       <c r="C6" t="n">
-        <v>139671.1947638352</v>
+        <v>139671.1947638349</v>
       </c>
       <c r="D6" t="n">
-        <v>139671.1947638352</v>
+        <v>139671.1947638351</v>
       </c>
       <c r="E6" t="n">
-        <v>-229353.1232001136</v>
+        <v>-235448.0498975666</v>
       </c>
       <c r="F6" t="n">
-        <v>250567.7422222608</v>
+        <v>244472.8155248079</v>
       </c>
       <c r="G6" t="n">
-        <v>250567.7422222608</v>
+        <v>244472.815524808</v>
       </c>
       <c r="H6" t="n">
-        <v>250567.7422222606</v>
+        <v>244472.815524808</v>
       </c>
       <c r="I6" t="n">
-        <v>185229.1499601912</v>
+        <v>181791.2750576654</v>
       </c>
       <c r="J6" t="n">
-        <v>273595.337639706</v>
+        <v>270157.4627371797</v>
       </c>
       <c r="K6" t="n">
-        <v>276720.1379809402</v>
+        <v>273282.2630784143</v>
       </c>
       <c r="L6" t="n">
-        <v>276720.1379809405</v>
+        <v>273282.2630784145</v>
       </c>
       <c r="M6" t="n">
-        <v>185856.4050296379</v>
+        <v>179761.4783321852</v>
       </c>
       <c r="N6" t="n">
-        <v>250567.7422222607</v>
+        <v>244472.8155248083</v>
       </c>
       <c r="O6" t="n">
-        <v>250567.7422222607</v>
+        <v>244472.815524808</v>
       </c>
       <c r="P6" t="n">
-        <v>250567.7422222608</v>
+        <v>244472.8155248082</v>
       </c>
     </row>
   </sheetData>
@@ -27387,10 +27387,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>378.8949160146003</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>399.4903313468757</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>159.1460801229381</v>
+        <v>170.5793581501676</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27444,7 +27444,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>366.2668923933677</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27463,22 +27463,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>125.5073039593362</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>121.4039133892705</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>116.9218675408926</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -27514,13 +27514,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>205.7904970416172</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>214.1687196457955</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>226.9597633986692</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -27545,22 +27545,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>139.9695766602387</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>156.7112037097728</v>
+        <v>155.2876044654746</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>47.51371951961512</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>199.6297182899954</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>218.9042169721241</v>
@@ -27624,10 +27624,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8949160146003</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>399.4903313468757</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>159.1460801229381</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27681,10 +27681,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>377.7001704205973</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>377.6634901895665</v>
       </c>
     </row>
     <row r="6">
@@ -27715,7 +27715,7 @@
         <v>86.99553219841505</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>47.24347953564978</v>
       </c>
       <c r="S6" t="n">
-        <v>139.3285454370332</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T6" t="n">
-        <v>176.2789053596189</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.7768683171821</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>141.0218268044592</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>138.5459774159405</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27797,7 +27797,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.20902125249397</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27827,16 +27827,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>220.3278162164223</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>272.3753904354372</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>271.351890787421</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27855,7 +27855,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>366.1714744001668</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27864,7 +27864,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>399.4903313468757</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27921,7 +27921,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>379.0870894338647</v>
       </c>
     </row>
     <row r="9">
@@ -27937,7 +27937,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>125.5073039593362</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S9" t="n">
-        <v>139.3285454370332</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V9" t="n">
-        <v>214.1687196457955</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>185.4184708049276</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28016,25 +28016,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>139.598227560161</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>138.5459774159405</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>139.0129017441268</v>
+        <v>140.4365009884249</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>155.2876044654746</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2595713324632</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -31995,7 +31995,7 @@
         <v>15.35634026753985</v>
       </c>
       <c r="I14" t="n">
-        <v>57.80791487018971</v>
+        <v>57.80791487018972</v>
       </c>
       <c r="J14" t="n">
         <v>127.2647562340643</v>
@@ -32010,7 +32010,7 @@
         <v>263.2919792996614</v>
       </c>
       <c r="N14" t="n">
-        <v>267.5523187880195</v>
+        <v>267.5523187880196</v>
       </c>
       <c r="O14" t="n">
         <v>252.6420677409941</v>
@@ -32019,19 +32019,19 @@
         <v>215.6241597361226</v>
       </c>
       <c r="Q14" t="n">
-        <v>161.9247640733596</v>
+        <v>161.9247640733597</v>
       </c>
       <c r="R14" t="n">
-        <v>94.19042688449657</v>
+        <v>94.19042688449659</v>
       </c>
       <c r="S14" t="n">
-        <v>34.16893483183835</v>
+        <v>34.16893483183836</v>
       </c>
       <c r="T14" t="n">
-        <v>6.563884244711895</v>
+        <v>6.563884244711896</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1199567651803429</v>
+        <v>0.119956765180343</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8022815963682968</v>
+        <v>0.8022815963682969</v>
       </c>
       <c r="H15" t="n">
-        <v>7.748351207030657</v>
+        <v>7.748351207030658</v>
       </c>
       <c r="I15" t="n">
-        <v>27.6224146118032</v>
+        <v>27.62241461180321</v>
       </c>
       <c r="J15" t="n">
-        <v>75.79801696214686</v>
+        <v>75.79801696214687</v>
       </c>
       <c r="K15" t="n">
-        <v>129.5508839188227</v>
+        <v>129.5508839188228</v>
       </c>
       <c r="L15" t="n">
         <v>174.1971510009322</v>
@@ -32089,7 +32089,7 @@
         <v>203.2798588692829</v>
       </c>
       <c r="N15" t="n">
-        <v>208.6600718554545</v>
+        <v>208.6600718554546</v>
       </c>
       <c r="O15" t="n">
         <v>190.8832006938202</v>
@@ -32101,16 +32101,16 @@
         <v>102.4105420206268</v>
       </c>
       <c r="R15" t="n">
-        <v>49.81183455346321</v>
+        <v>49.81183455346322</v>
       </c>
       <c r="S15" t="n">
         <v>14.90202877464796</v>
       </c>
       <c r="T15" t="n">
-        <v>3.233757837993265</v>
+        <v>3.233757837993266</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05278168397159849</v>
+        <v>0.0527816839715985</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6726059400096591</v>
+        <v>0.6726059400096592</v>
       </c>
       <c r="H16" t="n">
-        <v>5.980078266631337</v>
+        <v>5.980078266631338</v>
       </c>
       <c r="I16" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J16" t="n">
-        <v>47.55323995868289</v>
+        <v>47.5532399586829</v>
       </c>
       <c r="K16" t="n">
-        <v>78.1445810302131</v>
+        <v>78.14458103021312</v>
       </c>
       <c r="L16" t="n">
-        <v>99.99815948107243</v>
+        <v>99.99815948107245</v>
       </c>
       <c r="M16" t="n">
         <v>105.4340383962414</v>
@@ -32171,25 +32171,25 @@
         <v>102.9270526198418</v>
       </c>
       <c r="O16" t="n">
-        <v>95.06979232063803</v>
+        <v>95.06979232063804</v>
       </c>
       <c r="P16" t="n">
-        <v>81.34863114444092</v>
+        <v>81.34863114444093</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.321575576627</v>
+        <v>56.32157557662701</v>
       </c>
       <c r="R16" t="n">
-        <v>30.24280890261612</v>
+        <v>30.24280890261613</v>
       </c>
       <c r="S16" t="n">
         <v>11.72168715453197</v>
       </c>
       <c r="T16" t="n">
-        <v>2.873861743677633</v>
+        <v>2.873861743677634</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03668759672779963</v>
+        <v>0.03668759672779964</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>11.46040338013756</v>
       </c>
       <c r="P2" t="n">
         <v>11.94294668035388</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N3" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>11.46040338013756</v>
@@ -34874,7 +34874,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K5" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>11.94294668035388</v>
@@ -34947,7 +34947,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="N5" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="O6" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>11.94294668035388</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M9" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="M10" t="n">
-        <v>11.94294668035388</v>
       </c>
       <c r="N10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>199.9905585298276</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>11.91387563606659</v>
+        <v>29.96103273583663</v>
       </c>
       <c r="L11" t="n">
-        <v>45.06575310184775</v>
+        <v>588.0253320174334</v>
       </c>
       <c r="M11" t="n">
         <v>615.6683555774596</v>
@@ -35424,10 +35424,10 @@
         <v>615.6683555774596</v>
       </c>
       <c r="O11" t="n">
-        <v>503.4053634650431</v>
+        <v>560.7275066024425</v>
       </c>
       <c r="P11" t="n">
-        <v>446.0856713078935</v>
+        <v>27.74735068496608</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>361.3595228685083</v>
+        <v>131.0777230388478</v>
       </c>
       <c r="L12" t="n">
         <v>543.7141663242813</v>
       </c>
       <c r="M12" t="n">
-        <v>123.6107311154607</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="N12" t="n">
         <v>101.9449307877462</v>
@@ -35509,7 +35509,7 @@
         <v>458.3479903248053</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.7758246323381</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>199.9905585298276</v>
       </c>
       <c r="K14" t="n">
-        <v>11.91387563606659</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L14" t="n">
-        <v>588.0253320174334</v>
+        <v>45.06575310184778</v>
       </c>
       <c r="M14" t="n">
         <v>615.6683555774596</v>
       </c>
       <c r="N14" t="n">
-        <v>81.15420461578941</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O14" t="n">
-        <v>237.6490566028819</v>
+        <v>500.3546477454562</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0856713078935</v>
+        <v>27.74735068496611</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>136.6607912380117</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>361.3595228685083</v>
       </c>
       <c r="L15" t="n">
-        <v>61.62171742978438</v>
+        <v>61.62171742978441</v>
       </c>
       <c r="M15" t="n">
-        <v>87.795956307643</v>
+        <v>353.7555798525826</v>
       </c>
       <c r="N15" t="n">
-        <v>483.191363252049</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O15" t="n">
         <v>587.0447671424574</v>
@@ -35746,7 +35746,7 @@
         <v>458.3479903248053</v>
       </c>
       <c r="Q15" t="n">
-        <v>261.7758246323381</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.16960764377915</v>
+        <v>18.16960764377916</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>588.0253320174334</v>
       </c>
       <c r="M17" t="n">
-        <v>615.6683555774596</v>
+        <v>76.13566480250233</v>
       </c>
       <c r="N17" t="n">
-        <v>212.3264763347154</v>
+        <v>81.15420461578947</v>
       </c>
       <c r="O17" t="n">
         <v>560.7275066024425</v>
       </c>
       <c r="P17" t="n">
-        <v>27.74735068496611</v>
+        <v>436.6829110252119</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>257.3108789082455</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.458523245391405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>136.6607912380117</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L18" t="n">
         <v>543.7141663242813</v>
       </c>
       <c r="M18" t="n">
-        <v>87.79595630764302</v>
+        <v>123.6107311154603</v>
       </c>
       <c r="N18" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2801340389019</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P18" t="n">
         <v>458.3479903248053</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>146.136863074579</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L20" t="n">
         <v>588.0253320174334</v>
@@ -36132,13 +36132,13 @@
         <v>615.6683555774596</v>
       </c>
       <c r="N20" t="n">
-        <v>81.15420461578947</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O20" t="n">
-        <v>560.7275066024425</v>
+        <v>65.68727096087366</v>
       </c>
       <c r="P20" t="n">
-        <v>446.0856713078936</v>
+        <v>119.4457070837903</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K21" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L21" t="n">
         <v>543.7141663242813</v>
       </c>
       <c r="M21" t="n">
-        <v>615.6683555774596</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N21" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O21" t="n">
-        <v>186.8443506394355</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P21" t="n">
         <v>458.3479903248053</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>160.9298082021439</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.6607912380117</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>361.3595228685083</v>
       </c>
       <c r="L24" t="n">
-        <v>61.62171742978441</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M24" t="n">
-        <v>693.212539182643</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N24" t="n">
-        <v>725.0900174343658</v>
+        <v>399.5355302279017</v>
       </c>
       <c r="O24" t="n">
-        <v>75.02375208270908</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P24" t="n">
-        <v>123.053768327236</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q24" t="n">
-        <v>261.7758246323382</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K27" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L27" t="n">
         <v>543.7141663242813</v>
       </c>
       <c r="M27" t="n">
-        <v>693.212539182643</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N27" t="n">
-        <v>551.9253547011721</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O27" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P27" t="n">
-        <v>44.346391092887</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>160.9298082021439</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>35.81477480781709</v>
       </c>
       <c r="K30" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L30" t="n">
-        <v>370.5495035910874</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M30" t="n">
-        <v>693.212539182643</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N30" t="n">
-        <v>725.0900174343658</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O30" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P30" t="n">
-        <v>44.346391092887</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L33" t="n">
         <v>543.7141663242813</v>
       </c>
       <c r="M33" t="n">
-        <v>693.212539182643</v>
+        <v>123.6107311154601</v>
       </c>
       <c r="N33" t="n">
-        <v>551.9253547011721</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O33" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P33" t="n">
-        <v>44.346391092887</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K35" t="n">
-        <v>11.91387563606662</v>
+        <v>364.4846251676792</v>
       </c>
       <c r="L35" t="n">
         <v>588.0253320174334</v>
@@ -37317,13 +37317,13 @@
         <v>615.6683555774596</v>
       </c>
       <c r="N35" t="n">
-        <v>615.6683555774596</v>
+        <v>81.15420461578947</v>
       </c>
       <c r="O35" t="n">
         <v>560.7275066024425</v>
       </c>
       <c r="P35" t="n">
-        <v>45.7945077847357</v>
+        <v>27.74735068496611</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>615.6683555774596</v>
       </c>
       <c r="N36" t="n">
-        <v>215.4679390744379</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O36" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P36" t="n">
-        <v>458.3479903248053</v>
+        <v>58.14757382178335</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>11.91387563606662</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L38" t="n">
         <v>588.0253320174334</v>
       </c>
       <c r="M38" t="n">
-        <v>215.3771920543019</v>
+        <v>76.13566480250233</v>
       </c>
       <c r="N38" t="n">
-        <v>615.6683555774596</v>
+        <v>333.5208464867448</v>
       </c>
       <c r="O38" t="n">
         <v>560.7275066024425</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K39" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L39" t="n">
         <v>543.7141663242813</v>
       </c>
       <c r="M39" t="n">
-        <v>615.6683555774596</v>
+        <v>498.9709549371975</v>
       </c>
       <c r="N39" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877462</v>
       </c>
       <c r="O39" t="n">
-        <v>587.0447671424574</v>
+        <v>75.02375208270908</v>
       </c>
       <c r="P39" t="n">
-        <v>58.14757382178335</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>129.3753133088825</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L42" t="n">
         <v>543.7141663242813</v>
       </c>
       <c r="M42" t="n">
-        <v>615.6683555774596</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N42" t="n">
         <v>615.6683555774596</v>
       </c>
       <c r="O42" t="n">
-        <v>75.02375208270908</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P42" t="n">
-        <v>458.3479903248053</v>
+        <v>242.2151649752474</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K44" t="n">
-        <v>11.91387563606662</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L44" t="n">
-        <v>469.9559803609874</v>
+        <v>588.0253320174334</v>
       </c>
       <c r="M44" t="n">
-        <v>76.13566480250233</v>
+        <v>128.5117481436302</v>
       </c>
       <c r="N44" t="n">
-        <v>615.6683555774596</v>
+        <v>81.15420461578947</v>
       </c>
       <c r="O44" t="n">
         <v>560.7275066024425</v>
@@ -38037,7 +38037,7 @@
         <v>446.0856713078936</v>
       </c>
       <c r="Q44" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>543.7141663242813</v>
       </c>
       <c r="M45" t="n">
-        <v>615.6683555774596</v>
+        <v>87.79595630764302</v>
       </c>
       <c r="N45" t="n">
         <v>101.9449307877462</v>
       </c>
       <c r="O45" t="n">
-        <v>587.0447671424574</v>
+        <v>486.1987507122635</v>
       </c>
       <c r="P45" t="n">
-        <v>91.40539925713325</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
